--- a/second-order/1878/March1878.xlsx
+++ b/second-order/1878/March1878.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1878\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/1878/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15724" documentId="13_ncr:1_{6DD946A4-A101-454A-B5B8-E98082EBCBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3CBA1A5-18C2-4536-9080-26C92DA7AB64}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835CA163-3BDC-D744-9B59-212756070EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="18" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="760" yWindow="1340" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="13" activeTab="22" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000;[Red]0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,9 +672,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -712,7 +712,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -818,7 +818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -960,7 +960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -970,16 +970,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+    <sheetView topLeftCell="B26" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1016,7 +1016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>19</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3175,23 +3175,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="L28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J16" sqref="J16"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -3228,7 +3228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>57</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>57</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5367,7 +5367,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -5407,12 +5407,12 @@
       <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -5449,7 +5449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>62</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>62</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>62</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>62</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>62</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>62</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>62</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>62</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>62</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>62</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -7610,12 +7610,12 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -7652,7 +7652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>63</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>63</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>63</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>63</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>63</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>63</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>63</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>63</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>63</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>63</v>
       </c>
@@ -9667,7 +9667,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -9813,12 +9813,12 @@
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -9855,7 +9855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>64</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>64</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>64</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>64</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>64</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>64</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>64</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>64</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>64</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>64</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -12014,23 +12014,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J16" sqref="J16"/>
       <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
-      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -12067,7 +12067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>65</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>65</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>65</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>65</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>65</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>65</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>65</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>65</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>65</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -14206,7 +14206,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -14247,12 +14247,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -14289,7 +14289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>66</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>66</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>66</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>66</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -15654,7 +15654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
@@ -15719,7 +15719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>66</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>66</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>66</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>66</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>66</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>66</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>66</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -16448,23 +16448,23 @@
   <dimension ref="A2:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="I29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J16" sqref="J16"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -16501,7 +16501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -16631,7 +16631,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>68</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>68</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>68</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>68</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>68</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -18640,7 +18640,7 @@
         <v>1.175</v>
       </c>
     </row>
-    <row r="36" spans="1:21 16384:16384">
+    <row r="36" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -18681,12 +18681,12 @@
       <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -18723,7 +18723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>71</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>71</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>71</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -19698,7 +19698,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>71</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>71</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>71</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
@@ -20478,7 +20478,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>71</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>0.503</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
@@ -20673,7 +20673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -20884,12 +20884,12 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -20926,7 +20926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>73</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -21186,7 +21186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -21381,7 +21381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -21446,7 +21446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -21511,7 +21511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>73</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>73</v>
       </c>
@@ -21706,7 +21706,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
@@ -21901,7 +21901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -21966,7 +21966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -22031,7 +22031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -22096,7 +22096,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
@@ -22161,7 +22161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>73</v>
       </c>
@@ -22421,7 +22421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -22486,7 +22486,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>73</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>73</v>
       </c>
@@ -22876,7 +22876,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -22941,7 +22941,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>73</v>
       </c>
@@ -23006,7 +23006,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -23087,12 +23087,12 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -23129,7 +23129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>74</v>
       </c>
@@ -23324,7 +23324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -23454,7 +23454,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>74</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
@@ -23844,7 +23844,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>74</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -23974,7 +23974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -24104,7 +24104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>74</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
@@ -24299,7 +24299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>74</v>
       </c>
@@ -24364,7 +24364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
@@ -24429,7 +24429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>74</v>
       </c>
@@ -24559,7 +24559,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>74</v>
       </c>
@@ -24624,7 +24624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>74</v>
       </c>
@@ -24689,7 +24689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>74</v>
       </c>
@@ -24754,7 +24754,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
@@ -24819,7 +24819,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
@@ -24949,7 +24949,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>74</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>74</v>
       </c>
@@ -25079,7 +25079,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>74</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>74</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -25290,9 +25290,9 @@
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -25329,7 +25329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -25394,7 +25394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -25459,7 +25459,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
@@ -25524,7 +25524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
@@ -25589,7 +25589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -25654,7 +25654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -25719,7 +25719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -25784,7 +25784,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>36</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -25914,7 +25914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -25979,7 +25979,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -26044,7 +26044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -26174,7 +26174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -26239,7 +26239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -26304,7 +26304,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -26369,7 +26369,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -26434,7 +26434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -26499,7 +26499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -26694,7 +26694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
@@ -26759,7 +26759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -26824,7 +26824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
@@ -26954,7 +26954,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>36</v>
       </c>
@@ -27019,7 +27019,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -27084,7 +27084,7 @@
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -27214,7 +27214,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -27279,7 +27279,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
@@ -27344,7 +27344,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
@@ -27409,7 +27409,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -27488,23 +27488,23 @@
   <dimension ref="A2:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="E31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J16" sqref="J16"/>
       <selection pane="bottomLeft" activeCell="R38" sqref="R38"/>
-      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -27541,7 +27541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -27606,7 +27606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>76</v>
       </c>
@@ -27671,7 +27671,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -27736,7 +27736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>76</v>
       </c>
@@ -27866,7 +27866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>76</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
@@ -27996,7 +27996,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
@@ -28061,7 +28061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>76</v>
       </c>
@@ -28191,7 +28191,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -28256,7 +28256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -28321,7 +28321,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
@@ -28386,7 +28386,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>76</v>
       </c>
@@ -28516,7 +28516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>76</v>
       </c>
@@ -28581,7 +28581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>76</v>
       </c>
@@ -28711,7 +28711,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>76</v>
       </c>
@@ -28776,7 +28776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -28841,7 +28841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
@@ -28906,7 +28906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -28971,7 +28971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -29036,7 +29036,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
@@ -29101,7 +29101,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
@@ -29166,7 +29166,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
@@ -29231,7 +29231,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>76</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>76</v>
       </c>
@@ -29361,7 +29361,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>76</v>
       </c>
@@ -29424,7 +29424,7 @@
       </c>
       <c r="U31" s="12"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
@@ -29489,7 +29489,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:21 16384:16384">
+    <row r="33" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>76</v>
       </c>
@@ -29552,7 +29552,7 @@
       </c>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="1:21 16384:16384">
+    <row r="34" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>76</v>
       </c>
@@ -29617,7 +29617,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="35" spans="1:21 16384:16384">
+    <row r="35" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -29676,7 +29676,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="36" spans="1:21 16384:16384">
+    <row r="36" spans="1:21 16384:16384" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -29717,12 +29717,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -29759,7 +29759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -29824,7 +29824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -29889,7 +29889,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
@@ -29954,7 +29954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
@@ -30019,7 +30019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -30084,7 +30084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -30149,7 +30149,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -30214,7 +30214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -30279,7 +30279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -30344,7 +30344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>77</v>
       </c>
@@ -30409,7 +30409,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
@@ -30474,7 +30474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -30539,7 +30539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -30604,7 +30604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -30669,7 +30669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -30734,7 +30734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -30799,7 +30799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -30929,7 +30929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -30994,7 +30994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>77</v>
       </c>
@@ -31059,7 +31059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
@@ -31124,7 +31124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
@@ -31189,7 +31189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
@@ -31254,7 +31254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -31319,7 +31319,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -31384,7 +31384,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -31449,7 +31449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -31514,7 +31514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -31579,7 +31579,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
@@ -31644,7 +31644,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -31709,7 +31709,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -31774,7 +31774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>77</v>
       </c>
@@ -31839,7 +31839,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -31920,12 +31920,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -31962,7 +31962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -32027,7 +32027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -32092,7 +32092,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -32157,7 +32157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -32222,7 +32222,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
@@ -32287,7 +32287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -32352,7 +32352,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>79</v>
       </c>
@@ -32417,7 +32417,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>79</v>
       </c>
@@ -32482,7 +32482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
@@ -32547,7 +32547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
@@ -32612,7 +32612,7 @@
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
@@ -32677,7 +32677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -32742,7 +32742,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
@@ -32807,7 +32807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -32872,7 +32872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -32937,7 +32937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -33067,7 +33067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>79</v>
       </c>
@@ -33132,7 +33132,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -33197,7 +33197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>79</v>
       </c>
@@ -33262,7 +33262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -33327,7 +33327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
@@ -33392,7 +33392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
@@ -33457,7 +33457,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
@@ -33522,7 +33522,7 @@
         <v>0.58699999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
@@ -33587,7 +33587,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
@@ -33652,7 +33652,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
@@ -33717,7 +33717,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>79</v>
       </c>
@@ -33782,7 +33782,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>79</v>
       </c>
@@ -33847,7 +33847,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>79</v>
       </c>
@@ -33912,7 +33912,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>79</v>
       </c>
@@ -33977,7 +33977,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>79</v>
       </c>
@@ -34042,7 +34042,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -34101,7 +34101,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36">
         <f>SUM(E4:E34)/31</f>
         <v>30.184354838709677</v>
@@ -34130,24 +34130,24 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="H28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -34184,7 +34184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -34249,7 +34249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -34314,7 +34314,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
@@ -34379,7 +34379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -34444,7 +34444,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -34509,7 +34509,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -34574,7 +34574,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>80</v>
       </c>
@@ -34639,7 +34639,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -34704,7 +34704,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -34769,7 +34769,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -34786,7 +34786,7 @@
         <v>30.08</v>
       </c>
       <c r="F12" s="6">
-        <v>30.863</v>
+        <v>29.863</v>
       </c>
       <c r="G12" s="1">
         <v>44</v>
@@ -34834,7 +34834,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -34899,7 +34899,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -35029,7 +35029,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -35094,7 +35094,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -35159,7 +35159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -35224,7 +35224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -35289,7 +35289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
@@ -35354,7 +35354,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -35419,7 +35419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
@@ -35484,7 +35484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
@@ -35549,7 +35549,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
@@ -35614,7 +35614,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>80</v>
       </c>
@@ -35679,7 +35679,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>80</v>
       </c>
@@ -35744,7 +35744,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -35809,7 +35809,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -35874,7 +35874,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
@@ -35939,7 +35939,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
@@ -36004,7 +36004,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -36069,7 +36069,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -36134,7 +36134,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -36199,7 +36199,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>80</v>
       </c>
@@ -36264,7 +36264,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -36323,7 +36323,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -36363,9 +36363,9 @@
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -36402,7 +36402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -36467,7 +36467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -36532,7 +36532,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -36597,7 +36597,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>81</v>
       </c>
@@ -36662,7 +36662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>81</v>
       </c>
@@ -36727,7 +36727,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
@@ -36792,7 +36792,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
@@ -36857,7 +36857,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>81</v>
       </c>
@@ -36922,7 +36922,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>81</v>
       </c>
@@ -36987,7 +36987,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>81</v>
       </c>
@@ -37052,7 +37052,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>81</v>
       </c>
@@ -37117,7 +37117,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>81</v>
       </c>
@@ -37182,7 +37182,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
@@ -37247,7 +37247,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>81</v>
       </c>
@@ -37312,7 +37312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>81</v>
       </c>
@@ -37377,7 +37377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>81</v>
       </c>
@@ -37442,7 +37442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -37507,7 +37507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>81</v>
       </c>
@@ -37572,7 +37572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -37637,7 +37637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
@@ -37702,7 +37702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>81</v>
       </c>
@@ -37767,7 +37767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>81</v>
       </c>
@@ -37832,7 +37832,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -37897,7 +37897,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>81</v>
       </c>
@@ -37962,7 +37962,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>81</v>
       </c>
@@ -38027,7 +38027,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>81</v>
       </c>
@@ -38092,7 +38092,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
@@ -38157,7 +38157,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
@@ -38222,7 +38222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>81</v>
       </c>
@@ -38287,7 +38287,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>81</v>
       </c>
@@ -38352,7 +38352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>81</v>
       </c>
@@ -38417,7 +38417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>81</v>
       </c>
@@ -38482,7 +38482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -38561,23 +38561,23 @@
   <dimension ref="A2:V36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="H28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J16" sqref="J16"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -38614,7 +38614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -38679,7 +38679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -38744,7 +38744,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
@@ -38809,7 +38809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
@@ -38874,7 +38874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
@@ -38939,7 +38939,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>84</v>
       </c>
@@ -39004,7 +39004,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>84</v>
       </c>
@@ -39069,7 +39069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -39134,7 +39134,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>84</v>
       </c>
@@ -39199,7 +39199,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -39264,7 +39264,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>84</v>
       </c>
@@ -39329,7 +39329,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>84</v>
       </c>
@@ -39394,7 +39394,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>84</v>
       </c>
@@ -39459,7 +39459,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>84</v>
       </c>
@@ -39524,7 +39524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>84</v>
       </c>
@@ -39589,7 +39589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
@@ -39654,7 +39654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>84</v>
       </c>
@@ -39719,7 +39719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
@@ -39784,7 +39784,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -39849,7 +39849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -39914,7 +39914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -39979,7 +39979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>84</v>
       </c>
@@ -40044,7 +40044,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -40109,7 +40109,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -40174,7 +40174,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -40239,7 +40239,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>84</v>
       </c>
@@ -40304,7 +40304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
@@ -40369,7 +40369,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>84</v>
       </c>
@@ -40434,7 +40434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
@@ -40499,7 +40499,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>84</v>
       </c>
@@ -40564,7 +40564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
@@ -40629,7 +40629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>84</v>
       </c>
@@ -40694,7 +40694,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -40753,7 +40753,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -40792,23 +40792,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J16" sqref="J16"/>
       <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
-      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -40845,7 +40845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -40910,7 +40910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -40975,7 +40975,7 @@
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -41040,7 +41040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -41105,7 +41105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -41170,7 +41170,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -41235,7 +41235,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -41300,7 +41300,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -41430,7 +41430,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
@@ -41495,7 +41495,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
@@ -41560,7 +41560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -41625,7 +41625,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
@@ -41690,7 +41690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
@@ -41755,7 +41755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
@@ -41820,7 +41820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
@@ -41885,7 +41885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
@@ -41950,7 +41950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
@@ -42015,7 +42015,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -42080,7 +42080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -42145,7 +42145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -42210,7 +42210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -42275,7 +42275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -42340,7 +42340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -42405,7 +42405,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -42470,7 +42470,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -42535,7 +42535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
@@ -42600,7 +42600,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
@@ -42665,7 +42665,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -42730,7 +42730,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
@@ -42795,7 +42795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
@@ -42860,7 +42860,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
@@ -42925,7 +42925,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -42984,7 +42984,7 @@
         <v>2.3730000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -43024,12 +43024,12 @@
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -43066,7 +43066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -43131,7 +43131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
@@ -43196,7 +43196,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -43261,7 +43261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -43326,7 +43326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -43391,7 +43391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -43456,7 +43456,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -43521,7 +43521,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -43586,7 +43586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -43651,7 +43651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -43716,7 +43716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -43781,7 +43781,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -43846,7 +43846,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
@@ -43911,7 +43911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -43976,7 +43976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -44041,7 +44041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -44106,7 +44106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -44171,7 +44171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -44236,7 +44236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -44301,7 +44301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
@@ -44366,7 +44366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>44</v>
       </c>
@@ -44431,7 +44431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -44496,7 +44496,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
@@ -44561,7 +44561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -44626,7 +44626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
@@ -44691,7 +44691,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
@@ -44756,7 +44756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>44</v>
       </c>
@@ -44821,7 +44821,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -44886,7 +44886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
@@ -44951,7 +44951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>44</v>
       </c>
@@ -45016,7 +45016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
@@ -45081,7 +45081,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
@@ -45146,7 +45146,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -45205,7 +45205,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="U36" s="33"/>
     </row>
   </sheetData>
@@ -45228,23 +45228,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="N28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J16" sqref="J16"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -45281,7 +45281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -45346,7 +45346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -45411,7 +45411,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
@@ -45476,7 +45476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
@@ -45541,7 +45541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -45606,7 +45606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
@@ -45671,7 +45671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -45736,7 +45736,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
@@ -45801,7 +45801,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -45866,7 +45866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -45931,7 +45931,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -45996,7 +45996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
@@ -46061,7 +46061,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -46126,7 +46126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
@@ -46191,7 +46191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -46256,7 +46256,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -46321,7 +46321,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
@@ -46386,7 +46386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -46451,7 +46451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -46516,7 +46516,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
@@ -46581,7 +46581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -46646,7 +46646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -46711,7 +46711,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -46776,7 +46776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
@@ -46841,7 +46841,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
@@ -46906,7 +46906,7 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
@@ -46971,7 +46971,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -47036,7 +47036,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
@@ -47101,7 +47101,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
@@ -47166,7 +47166,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
@@ -47231,7 +47231,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -47296,7 +47296,7 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -47361,7 +47361,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -47420,7 +47420,7 @@
         <v>1.544</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -47457,23 +47457,23 @@
   <dimension ref="A2:U36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="G28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J16" sqref="J16"/>
       <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
-      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -47510,7 +47510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -47575,7 +47575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -47640,7 +47640,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -47705,7 +47705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
@@ -47770,7 +47770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -47835,7 +47835,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -47900,7 +47900,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -47965,7 +47965,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -48030,7 +48030,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -48095,7 +48095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -48160,7 +48160,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -48225,7 +48225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -48290,7 +48290,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -48355,7 +48355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -48420,7 +48420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
@@ -48485,7 +48485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -48550,7 +48550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -48615,7 +48615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -48680,7 +48680,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -48745,7 +48745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -48810,7 +48810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -48875,7 +48875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
@@ -48940,7 +48940,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -49005,7 +49005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>47</v>
       </c>
@@ -49070,7 +49070,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
@@ -49135,7 +49135,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -49200,7 +49200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -49265,7 +49265,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -49330,7 +49330,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -49395,7 +49395,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>47</v>
       </c>
@@ -49460,7 +49460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -49525,7 +49525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
@@ -49590,7 +49590,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -49649,7 +49649,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -49687,23 +49687,23 @@
   <dimension ref="A2:XFD36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="K28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J16" sqref="J16"/>
       <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
-      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -49740,7 +49740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -49805,7 +49805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -49870,7 +49870,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -49935,7 +49935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>48</v>
       </c>
@@ -50000,7 +50000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -50065,7 +50065,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
@@ -50130,7 +50130,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -50195,7 +50195,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -50260,7 +50260,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -50325,7 +50325,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -50390,7 +50390,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -50455,7 +50455,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -50520,7 +50520,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -50585,7 +50585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -50650,7 +50650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
@@ -50715,7 +50715,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -50780,7 +50780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -50845,7 +50845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
@@ -50910,7 +50910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
@@ -50975,7 +50975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -51040,7 +51040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -51105,7 +51105,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>48</v>
       </c>
@@ -51170,7 +51170,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -51235,7 +51235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>48</v>
       </c>
@@ -51300,7 +51300,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
@@ -51365,7 +51365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>48</v>
       </c>
@@ -51430,7 +51430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
@@ -51495,7 +51495,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -51560,7 +51560,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -51625,7 +51625,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
@@ -51690,7 +51690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:22 16384:16384">
+    <row r="33" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
@@ -51755,7 +51755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:22 16384:16384">
+    <row r="34" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
@@ -51820,7 +51820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:22 16384:16384">
+    <row r="35" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -51879,7 +51879,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="36" spans="1:22 16384:16384">
+    <row r="36" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -51921,12 +51921,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -51963,7 +51963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -52028,7 +52028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -52093,7 +52093,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -52158,7 +52158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -52223,7 +52223,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -52288,7 +52288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -52353,7 +52353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
@@ -52418,7 +52418,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
@@ -52483,7 +52483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -52548,7 +52548,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -52613,7 +52613,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
@@ -52678,7 +52678,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -52743,7 +52743,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -52808,7 +52808,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -52873,7 +52873,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -52938,7 +52938,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -53003,7 +53003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -53068,7 +53068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -53133,7 +53133,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -53198,7 +53198,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
@@ -53263,7 +53263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -53328,7 +53328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -53393,7 +53393,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>49</v>
       </c>
@@ -53458,7 +53458,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -53523,7 +53523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -53588,7 +53588,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -53653,7 +53653,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -53718,7 +53718,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -53783,7 +53783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
@@ -53848,7 +53848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -53913,7 +53913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>49</v>
       </c>
@@ -53978,7 +53978,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>49</v>
       </c>
@@ -54043,7 +54043,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -54124,12 +54124,12 @@
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="30">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -54166,7 +54166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -54231,7 +54231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -54296,7 +54296,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -54361,7 +54361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
@@ -54426,7 +54426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>50</v>
       </c>
@@ -54491,7 +54491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -54556,7 +54556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -54621,7 +54621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>50</v>
       </c>
@@ -54751,7 +54751,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
@@ -54816,7 +54816,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -54881,7 +54881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -54946,7 +54946,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -55011,7 +55011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -55076,7 +55076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>50</v>
       </c>
@@ -55141,7 +55141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -55206,7 +55206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -55271,7 +55271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>50</v>
       </c>
@@ -55336,7 +55336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -55401,7 +55401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -55466,7 +55466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>50</v>
       </c>
@@ -55531,7 +55531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
@@ -55596,7 +55596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
@@ -55661,7 +55661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -55726,7 +55726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>50</v>
       </c>
@@ -55791,7 +55791,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -55856,7 +55856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -55921,7 +55921,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -55986,7 +55986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -56051,7 +56051,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -56116,7 +56116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -56181,7 +56181,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -56246,7 +56246,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -56320,12 +56320,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35905</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35905</Url>
+      <Description>H7Q62YT2XCZT-908671883-35905</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56636,23 +56647,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35905</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35905</Url>
-      <Description>H7Q62YT2XCZT-908671883-35905</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56706,17 +56706,51 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46BE8C26-F073-4C58-8ABE-D922805E4DFE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46BE8C26-F073-4C58-8ABE-D922805E4DFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8844623A-14C8-47BC-B24A-4AE6EA9755E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8844623A-14C8-47BC-B24A-4AE6EA9755E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>